--- a/Data/SNV_filtering_inputs/PillarProject_filtering/SFPQ/20250822_SFPQ_filter_entry.xlsx
+++ b/Data/SNV_filtering_inputs/PillarProject_filtering/SFPQ/20250822_SFPQ_filter_entry.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ivan/Documents/GitHub/BARD1_SGE_analysis/Data/SNV_filtering_inputs/PillarProject_filtering/SFPQ/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EC5ECFC-C229-4B45-B6E5-2CEF321B06C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DBFF107-7C91-0A48-91B0-D4E3D3B5224B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18560" windowHeight="18000" xr2:uid="{8C01A5B8-3E10-AC49-BF69-E3F8303A9D28}"/>
+    <workbookView xWindow="140" yWindow="660" windowWidth="14160" windowHeight="15960" xr2:uid="{8C01A5B8-3E10-AC49-BF69-E3F8303A9D28}"/>
   </bookViews>
   <sheets>
     <sheet name="targets" sheetId="1" r:id="rId1"/>
@@ -462,7 +462,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -478,25 +478,25 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2">
         <v>35191559</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2">
         <v>35191435</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3">
         <v>35191441</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3">
         <v>35191318</v>
       </c>
     </row>
@@ -504,21 +504,21 @@
       <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4">
         <v>35191022</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4">
         <v>35190898</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5">
         <v>35190922</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5">
         <v>35190801</v>
       </c>
     </row>
@@ -533,11 +533,11 @@
         <v>35190729</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7">
         <v>35190766</v>
       </c>
       <c r="C7">
